--- a/Data/Transitions/19581963Translation.xlsx
+++ b/Data/Transitions/19581963Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="607">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1721,9 +1721,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3848,7 +3845,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>569</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3859,7 +3856,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4068,7 +4065,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4398,7 +4395,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4442,7 +4439,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4585,7 +4582,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>569</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4959,7 +4956,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5069,7 +5066,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5113,7 +5110,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5322,7 +5319,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5432,7 +5429,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5597,7 +5594,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5630,7 +5627,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5652,7 +5649,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5663,7 +5660,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5707,7 +5704,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5828,7 +5825,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5861,7 +5858,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6037,7 +6034,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6059,7 +6056,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6070,7 +6067,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6169,7 +6166,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6389,7 +6386,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6400,7 +6397,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6796,7 +6793,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7104,7 +7101,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7159,7 +7156,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7181,7 +7178,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7236,7 +7233,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7313,7 +7310,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7500,7 +7497,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7533,7 +7530,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7577,7 +7574,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7775,7 +7772,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7896,7 +7893,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8017,7 +8014,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8039,7 +8036,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8061,7 +8058,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8072,7 +8069,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8116,7 +8113,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="539" spans="1:3">
